--- a/individual_case_outputs/harvard/503.xlsx
+++ b/individual_case_outputs/harvard/503.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>asthma</t>
+          <t>upper airway obstruction</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -681,7 +681,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>asthma</t>
+          <t>hyperventilation syndrome</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -722,14 +722,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>hyperventilation syndrome</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>asthma</t>
+          <t>chronic obstructive pulmonary disease</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
